--- a/packagesinfo/packages_info.xlsx
+++ b/packagesinfo/packages_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Micheal\MyGitLearningData\packagesinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41766DBC-FABA-4822-AD10-050E877E9D40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454D74D-BDCC-4D43-9BD8-8BFC08531F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
